--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4299.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4299.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Taskin Ahmed</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3644</t>
+          <t>3644</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>19/06/2014</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3645</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +812,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>04/03/2015</t>
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,7 +859,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>09/03/2015</t>
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,7 +906,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>17/04/2015</t>
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -992,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>19/04/2015</t>
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1040,7 +1099,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>22/04/2015</t>
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1140,7 +1198,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>21/06/2015</t>
@@ -1148,7 +1205,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1292,7 +1349,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>01/10/2016</t>
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1392,7 +1448,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>09/10/2016</t>
@@ -1400,7 +1455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1440,7 +1495,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>12/10/2016</t>
@@ -1448,7 +1502,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1552,7 +1606,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1604,7 +1658,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1644,7 +1698,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>25/03/2017</t>
@@ -1652,7 +1705,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1692,7 +1745,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -1700,7 +1752,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1752,7 +1804,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1792,7 +1844,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -1800,7 +1851,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1840,7 +1891,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -1848,7 +1898,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1900,7 +1950,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1940,7 +1990,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>15/10/2017</t>
@@ -1948,7 +1997,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2000,7 +2049,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2052,7 +2101,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2092,7 +2141,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>25/01/2021</t>
@@ -2100,7 +2148,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2152,7 +2200,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2192,7 +2240,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -2200,7 +2247,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2252,7 +2299,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2292,7 +2339,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>23/05/2021</t>
@@ -2300,7 +2346,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2340,7 +2386,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>25/05/2021</t>
@@ -2348,7 +2393,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2400,7 +2445,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2452,7 +2497,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4477</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2492,7 +2537,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>18/07/2021</t>
@@ -2500,7 +2544,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4479</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2540,7 +2584,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>20/07/2021</t>
@@ -2548,7 +2591,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2588,7 +2631,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>23/02/2022</t>
@@ -2596,7 +2638,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2636,7 +2678,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>25/02/2022</t>
@@ -2644,7 +2685,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2696,7 +2737,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2748,7 +2789,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2800,7 +2841,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2840,7 +2881,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>23/03/2022</t>
@@ -2848,7 +2888,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2888,7 +2928,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>10/07/2022</t>
@@ -2896,7 +2935,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2936,7 +2975,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>05/08/2022</t>
@@ -2944,7 +2982,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4626</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2996,7 +3034,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4627</t>
+          <t>4627</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3048,7 +3086,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3100,7 +3138,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3152,7 +3190,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3204,7 +3242,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3256,7 +3294,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4729</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3296,7 +3334,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>23/03/2023</t>
@@ -3304,7 +3341,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3343,7 +3380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3365,7 +3402,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3402,7 +3439,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3644</t>
+          <t>3644</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3439,7 +3476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3645</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3476,7 +3513,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3513,7 +3550,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3550,7 +3587,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3587,7 +3624,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3624,7 +3661,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3661,7 +3698,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3698,7 +3735,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3735,7 +3772,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3772,7 +3809,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3809,7 +3846,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3846,7 +3883,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3883,7 +3920,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3920,7 +3957,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3957,7 +3994,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3994,7 +4031,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4031,7 +4068,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4068,7 +4105,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4105,7 +4142,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4142,7 +4179,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4179,7 +4216,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4216,7 +4253,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4253,7 +4290,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4290,7 +4327,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4327,7 +4364,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4364,7 +4401,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4401,7 +4438,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4438,7 +4475,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4475,7 +4512,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4512,7 +4549,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4549,7 +4586,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4586,7 +4623,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4623,7 +4660,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4660,7 +4697,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4697,7 +4734,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4734,7 +4771,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4771,7 +4808,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4808,7 +4845,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4477</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4845,7 +4882,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4479</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4882,7 +4919,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4919,7 +4956,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4956,7 +4993,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4993,7 +5030,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5030,7 +5067,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5067,7 +5104,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5104,7 +5141,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5141,7 +5178,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5178,7 +5215,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4626</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5215,7 +5252,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4627</t>
+          <t>4627</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5252,7 +5289,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5289,7 +5326,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5326,7 +5363,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5363,7 +5400,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5400,7 +5437,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5426,6 +5463,493 @@
       <c r="G56" t="inlineStr">
         <is>
           <t>3/26</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2.23%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4.64%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4627</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.70%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10.82%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4299.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4299.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5523,10 +5524,6 @@
           <t>4464</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5552,7 +5549,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5598,9 +5594,6 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5616,9 +5609,6 @@
       <c r="B6" t="n">
         <v>10</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5634,9 +5624,6 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5649,10 +5636,6 @@
           <t>4538</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5678,7 +5661,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5754,9 +5736,6 @@
       <c r="B12" t="n">
         <v>9</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>YES</t>
@@ -5769,10 +5748,6 @@
           <t>4606</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5788,9 +5763,6 @@
       <c r="B14" t="n">
         <v>9</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5833,10 +5805,6 @@
           <t>4685</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5909,10 +5877,6 @@
           <t>4726</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5925,15 +5889,325 @@
           <t>4729</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4627</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5941,15 +6215,14 @@
           <t>4734</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4299.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4299.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -610,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>19/06/2014</t>
@@ -622,7 +621,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -813,6 +812,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>04/03/2015</t>
@@ -860,6 +860,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>09/03/2015</t>
@@ -907,6 +908,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -1006,6 +1008,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>17/04/2015</t>
@@ -1053,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>19/04/2015</t>
@@ -1100,6 +1104,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>22/04/2015</t>
@@ -1199,6 +1204,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>21/06/2015</t>
@@ -1350,6 +1356,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>01/10/2016</t>
@@ -1449,6 +1456,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>09/10/2016</t>
@@ -1496,6 +1504,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>12/10/2016</t>
@@ -1699,6 +1708,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>25/03/2017</t>
@@ -1746,6 +1756,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -1758,7 +1769,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1845,6 +1856,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -1892,6 +1904,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -1991,6 +2004,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>15/10/2017</t>
@@ -2142,6 +2156,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>25/01/2021</t>
@@ -2241,6 +2256,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -2340,6 +2356,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>23/05/2021</t>
@@ -2387,6 +2404,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>25/05/2021</t>
@@ -2538,6 +2556,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>18/07/2021</t>
@@ -2585,6 +2604,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>20/07/2021</t>
@@ -2632,6 +2652,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>23/02/2022</t>
@@ -2679,6 +2700,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>25/02/2022</t>
@@ -2882,6 +2904,7 @@
           <t>48</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>23/03/2022</t>
@@ -2929,6 +2952,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>10/07/2022</t>
@@ -2976,6 +3000,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>05/08/2022</t>
@@ -3335,6 +3360,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>23/03/2023</t>
@@ -5470,763 +5496,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4477</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.36%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4479</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.23%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.64%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4606</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4627</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.70%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>10.82%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4729</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4477</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4479</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4606</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4627</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>